--- a/Resurswzor.xlsx
+++ b/Resurswzor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="txjYfBARgNbtDmVrb+ohay2AfapVdRwLnVVrQsTzUHGSX15zuBUNeK0vFY5aRI8yJ/QX1QOznUjvDDmPUu9aOA==" workbookSaltValue="hmenLSfrHHO8wqQ9E97PXQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -498,15 +498,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -520,9 +563,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -531,46 +571,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,7 +1015,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1029,45 +1029,45 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="2.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="1.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" customWidth="1"/>
-    <col min="15" max="15" width="3.5703125" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" customWidth="1"/>
+    <col min="6" max="6" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="2.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" customWidth="1"/>
+    <col min="11" max="11" width="1.81640625" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" customWidth="1"/>
+    <col min="13" max="13" width="2.81640625" customWidth="1"/>
+    <col min="14" max="14" width="5.26953125" customWidth="1"/>
+    <col min="15" max="15" width="3.54296875" customWidth="1"/>
+    <col min="16" max="16" width="9.26953125" customWidth="1"/>
+    <col min="22" max="22" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="31"/>
@@ -1093,24 +1093,24 @@
       <c r="AL1" s="31"/>
       <c r="AM1" s="31"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A2" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="31"/>
       <c r="R2" s="31"/>
@@ -1136,24 +1136,24 @@
       <c r="AL2" s="31"/>
       <c r="AM2" s="31"/>
     </row>
-    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="31"/>
@@ -1179,22 +1179,22 @@
       <c r="AL3" s="31"/>
       <c r="AM3" s="31"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="31"/>
@@ -1220,22 +1220,22 @@
       <c r="AL4" s="31"/>
       <c r="AM4" s="31"/>
     </row>
-    <row r="5" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
+    <row r="5" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="31"/>
@@ -1261,24 +1261,24 @@
       <c r="AL5" s="31"/>
       <c r="AM5" s="31"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="31"/>
@@ -1304,29 +1304,29 @@
       <c r="AL6" s="31"/>
       <c r="AM6" s="31"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="54" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="57">
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="50">
         <f ca="1">TODAY()</f>
-        <v>44898</v>
+        <v>44949</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
       <c r="P7" s="32"/>
       <c r="Q7" s="32"/>
       <c r="R7" s="31"/>
@@ -1352,24 +1352,24 @@
       <c r="AL7" s="31"/>
       <c r="AM7" s="31"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="54" t="s">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
       <c r="P8" s="32"/>
       <c r="Q8" s="32"/>
       <c r="R8" s="31"/>
@@ -1395,26 +1395,26 @@
       <c r="AL8" s="31"/>
       <c r="AM8" s="31"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A9" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="54" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
       <c r="P9" s="32"/>
       <c r="Q9" s="32"/>
       <c r="R9" s="31"/>
@@ -1440,24 +1440,24 @@
       <c r="AL9" s="31"/>
       <c r="AM9" s="31"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="54" t="s">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="R10" s="31"/>
@@ -1483,28 +1483,28 @@
       <c r="AL10" s="31"/>
       <c r="AM10" s="31"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A11" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="51" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="54" t="s">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
       <c r="P11" s="32"/>
       <c r="Q11" s="32"/>
       <c r="R11" s="31"/>
@@ -1530,24 +1530,24 @@
       <c r="AL11" s="31"/>
       <c r="AM11" s="31"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="54" t="s">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
       <c r="R12" s="31"/>
@@ -1573,18 +1573,18 @@
       <c r="AL12" s="31"/>
       <c r="AM12" s="31"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
@@ -1616,24 +1616,24 @@
       <c r="AL13" s="31"/>
       <c r="AM13" s="31"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A14" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="31"/>
@@ -1659,24 +1659,24 @@
       <c r="AL14" s="31"/>
       <c r="AM14" s="31"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A15" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="31"/>
@@ -1702,24 +1702,24 @@
       <c r="AL15" s="31"/>
       <c r="AM15" s="31"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A16" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="35"/>
@@ -1745,24 +1745,24 @@
       <c r="AL16" s="31"/>
       <c r="AM16" s="31"/>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="31"/>
@@ -1788,22 +1788,22 @@
       <c r="AL17" s="31"/>
       <c r="AM17" s="31"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="31"/>
@@ -1829,22 +1829,22 @@
       <c r="AL18" s="31"/>
       <c r="AM18" s="31"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="31"/>
@@ -1870,7 +1870,7 @@
       <c r="AL19" s="31"/>
       <c r="AM19" s="31"/>
     </row>
-    <row r="20" spans="1:39" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -1911,7 +1911,7 @@
       <c r="AL20" s="31"/>
       <c r="AM20" s="31"/>
     </row>
-    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18">
         <f>L12</f>
         <v>0</v>
@@ -1987,7 +1987,7 @@
       <c r="AL21" s="31"/>
       <c r="AM21" s="31"/>
     </row>
-    <row r="22" spans="1:39" ht="24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="24" x14ac:dyDescent="0.35">
       <c r="A22" s="22" t="s">
         <v>21</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="AL22" s="31"/>
       <c r="AM22" s="31"/>
     </row>
-    <row r="23" spans="1:39" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -2046,15 +2046,15 @@
       <c r="E23" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="56">
         <f>N21%</f>
         <v>0</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44" t="s">
+      <c r="G23" s="56"/>
+      <c r="H23" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="44"/>
+      <c r="I23" s="57"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
@@ -2086,24 +2086,24 @@
       <c r="AL23" s="31"/>
       <c r="AM23" s="31"/>
     </row>
-    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="31"/>
@@ -2129,22 +2129,22 @@
       <c r="AL24" s="31"/>
       <c r="AM24" s="31"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="31"/>
       <c r="R25" s="31"/>
@@ -2170,24 +2170,24 @@
       <c r="AL25" s="31"/>
       <c r="AM25" s="31"/>
     </row>
-    <row r="26" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
+    <row r="26" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="31"/>
       <c r="R26" s="31"/>
@@ -2213,16 +2213,16 @@
       <c r="AL26" s="31"/>
       <c r="AM26" s="31"/>
     </row>
-    <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+    <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
@@ -2256,18 +2256,18 @@
       <c r="AL27" s="31"/>
       <c r="AM27" s="31"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A28" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
       <c r="L28" s="27"/>
@@ -2299,18 +2299,18 @@
       <c r="AL28" s="31"/>
       <c r="AM28" s="31"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A29" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
@@ -2342,24 +2342,24 @@
       <c r="AL29" s="31"/>
       <c r="AM29" s="31"/>
     </row>
-    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="31"/>
@@ -2385,22 +2385,22 @@
       <c r="AL30" s="31"/>
       <c r="AM30" s="31"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="31"/>
@@ -2426,21 +2426,21 @@
       <c r="AL31" s="31"/>
       <c r="AM31" s="31"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A32" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
       <c r="O32" s="27"/>
@@ -2469,24 +2469,24 @@
       <c r="AL32" s="31"/>
       <c r="AM32" s="31"/>
     </row>
-    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+    <row r="33" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
       <c r="P33" s="31"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="31"/>
@@ -2512,22 +2512,22 @@
       <c r="AL33" s="31"/>
       <c r="AM33" s="31"/>
     </row>
-    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
+    <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
       <c r="P34" s="31"/>
       <c r="Q34" s="38"/>
       <c r="R34" s="31"/>
@@ -2553,22 +2553,22 @@
       <c r="AL34" s="31"/>
       <c r="AM34" s="31"/>
     </row>
-    <row r="35" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
+    <row r="35" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
       <c r="P35" s="31"/>
       <c r="Q35" s="38"/>
       <c r="R35" s="31"/>
@@ -2594,27 +2594,27 @@
       <c r="AL35" s="31"/>
       <c r="AM35" s="31"/>
     </row>
-    <row r="36" spans="1:39" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="56" t="s">
+    <row r="36" spans="1:39" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="62">
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="43">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
       <c r="P36" s="31"/>
       <c r="Q36" s="38"/>
       <c r="R36" s="31"/>
@@ -2640,21 +2640,21 @@
       <c r="AL36" s="31"/>
       <c r="AM36" s="31"/>
     </row>
-    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61" t="s">
+    <row r="37" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="55" t="s">
+      <c r="H37" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
       <c r="M37" s="27"/>
@@ -2685,11 +2685,11 @@
       <c r="AL37" s="31"/>
       <c r="AM37" s="31"/>
     </row>
-    <row r="38" spans="1:39" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+    <row r="38" spans="1:39" ht="21" x14ac:dyDescent="0.35">
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -2726,11 +2726,11 @@
       <c r="AL38" s="31"/>
       <c r="AM38" s="31"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -2767,11 +2767,11 @@
       <c r="AL39" s="31"/>
       <c r="AM39" s="31"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -2808,11 +2808,11 @@
       <c r="AL40" s="31"/>
       <c r="AM40" s="31"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -2849,7 +2849,7 @@
       <c r="AL41" s="31"/>
       <c r="AM41" s="31"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -2890,22 +2890,22 @@
       <c r="AL42" s="31"/>
       <c r="AM42" s="31"/>
     </row>
-    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
       <c r="N43" s="30"/>
       <c r="O43" s="30"/>
       <c r="P43" s="4"/>
@@ -2933,20 +2933,20 @@
       <c r="AL43" s="31"/>
       <c r="AM43" s="31"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A44" s="29"/>
       <c r="B44" s="17"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
       <c r="N44" s="30"/>
       <c r="O44" s="30"/>
       <c r="P44" s="4"/>
@@ -2974,7 +2974,7 @@
       <c r="AL44" s="31"/>
       <c r="AM44" s="31"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -3015,7 +3015,7 @@
       <c r="AL45" s="31"/>
       <c r="AM45" s="31"/>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -3056,7 +3056,7 @@
       <c r="AL46" s="31"/>
       <c r="AM46" s="31"/>
     </row>
-    <row r="47" spans="1:39" ht="21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="31"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
@@ -3097,7 +3097,7 @@
       <c r="AL47" s="31"/>
       <c r="AM47" s="31"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
@@ -3138,7 +3138,7 @@
       <c r="AL48" s="31"/>
       <c r="AM48" s="31"/>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
@@ -3179,7 +3179,7 @@
       <c r="AL49" s="31"/>
       <c r="AM49" s="31"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
@@ -3220,7 +3220,7 @@
       <c r="AL50" s="31"/>
       <c r="AM50" s="31"/>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
@@ -3261,7 +3261,7 @@
       <c r="AL51" s="31"/>
       <c r="AM51" s="31"/>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A52" s="31"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
@@ -3302,7 +3302,7 @@
       <c r="AL52" s="31"/>
       <c r="AM52" s="31"/>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A53" s="31"/>
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
@@ -3343,7 +3343,7 @@
       <c r="AL53" s="31"/>
       <c r="AM53" s="31"/>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A54" s="31"/>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
@@ -3384,7 +3384,7 @@
       <c r="AL54" s="31"/>
       <c r="AM54" s="31"/>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A55" s="31"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
@@ -3425,7 +3425,7 @@
       <c r="AL55" s="31"/>
       <c r="AM55" s="31"/>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
@@ -3466,7 +3466,7 @@
       <c r="AL56" s="31"/>
       <c r="AM56" s="31"/>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A57" s="31"/>
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
@@ -3505,7 +3505,7 @@
       <c r="AJ57" s="31"/>
       <c r="AK57" s="31"/>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A58" s="31"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
@@ -3544,7 +3544,7 @@
       <c r="AJ58" s="31"/>
       <c r="AK58" s="31"/>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A59" s="31"/>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
@@ -3583,7 +3583,7 @@
       <c r="AJ59" s="31"/>
       <c r="AK59" s="31"/>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A60" s="31"/>
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
@@ -3622,7 +3622,7 @@
       <c r="AJ60" s="31"/>
       <c r="AK60" s="31"/>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A61" s="31"/>
       <c r="B61" s="31"/>
       <c r="C61" s="31"/>
@@ -3661,7 +3661,7 @@
       <c r="AJ61" s="31"/>
       <c r="AK61" s="31"/>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A62" s="31"/>
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
@@ -3700,7 +3700,7 @@
       <c r="AJ62" s="31"/>
       <c r="AK62" s="31"/>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A63" s="31"/>
       <c r="B63" s="31"/>
       <c r="C63" s="31"/>
@@ -3739,7 +3739,7 @@
       <c r="AJ63" s="31"/>
       <c r="AK63" s="31"/>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A64" s="31"/>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
@@ -3778,7 +3778,7 @@
       <c r="AJ64" s="31"/>
       <c r="AK64" s="31"/>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A65" s="31"/>
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
@@ -3817,7 +3817,7 @@
       <c r="AJ65" s="31"/>
       <c r="AK65" s="31"/>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A66" s="31"/>
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
@@ -3856,7 +3856,7 @@
       <c r="AJ66" s="31"/>
       <c r="AK66" s="31"/>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A67" s="31"/>
       <c r="B67" s="31"/>
       <c r="C67" s="31"/>
@@ -3895,7 +3895,7 @@
       <c r="AJ67" s="31"/>
       <c r="AK67" s="31"/>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A68" s="31"/>
       <c r="B68" s="31"/>
       <c r="C68" s="31"/>
@@ -3934,7 +3934,7 @@
       <c r="AJ68" s="31"/>
       <c r="AK68" s="31"/>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A69" s="31"/>
       <c r="B69" s="31"/>
       <c r="C69" s="31"/>
@@ -3973,7 +3973,7 @@
       <c r="AJ69" s="31"/>
       <c r="AK69" s="31"/>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A70" s="31"/>
       <c r="B70" s="31"/>
       <c r="C70" s="31"/>
@@ -4012,7 +4012,7 @@
       <c r="AJ70" s="31"/>
       <c r="AK70" s="31"/>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A71" s="31"/>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
@@ -4051,7 +4051,7 @@
       <c r="AJ71" s="31"/>
       <c r="AK71" s="31"/>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A72" s="31"/>
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
@@ -4090,7 +4090,7 @@
       <c r="AJ72" s="31"/>
       <c r="AK72" s="31"/>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A73" s="31"/>
       <c r="B73" s="31"/>
       <c r="C73" s="31"/>
@@ -4129,7 +4129,7 @@
       <c r="AJ73" s="31"/>
       <c r="AK73" s="31"/>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A74" s="31"/>
       <c r="B74" s="31"/>
       <c r="C74" s="31"/>
@@ -4168,7 +4168,7 @@
       <c r="AJ74" s="31"/>
       <c r="AK74" s="31"/>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A75" s="31"/>
       <c r="B75" s="31"/>
       <c r="C75" s="31"/>
@@ -4207,7 +4207,7 @@
       <c r="AJ75" s="31"/>
       <c r="AK75" s="31"/>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A76" s="31"/>
       <c r="B76" s="31"/>
       <c r="C76" s="31"/>
@@ -4246,7 +4246,7 @@
       <c r="AJ76" s="31"/>
       <c r="AK76" s="31"/>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A77" s="31"/>
       <c r="B77" s="31"/>
       <c r="C77" s="31"/>
@@ -4285,7 +4285,7 @@
       <c r="AJ77" s="31"/>
       <c r="AK77" s="31"/>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A78" s="31"/>
       <c r="B78" s="31"/>
       <c r="C78" s="31"/>
@@ -4324,7 +4324,7 @@
       <c r="AJ78" s="31"/>
       <c r="AK78" s="31"/>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A79" s="31"/>
       <c r="B79" s="31"/>
       <c r="C79" s="31"/>
@@ -4363,7 +4363,7 @@
       <c r="AJ79" s="31"/>
       <c r="AK79" s="31"/>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A80" s="31"/>
       <c r="B80" s="31"/>
       <c r="C80" s="31"/>
@@ -4402,7 +4402,7 @@
       <c r="AJ80" s="31"/>
       <c r="AK80" s="31"/>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A81" s="31"/>
       <c r="B81" s="31"/>
       <c r="C81" s="31"/>
@@ -4441,7 +4441,7 @@
       <c r="AJ81" s="31"/>
       <c r="AK81" s="31"/>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A82" s="31"/>
       <c r="B82" s="31"/>
       <c r="C82" s="31"/>
@@ -4480,7 +4480,7 @@
       <c r="AJ82" s="31"/>
       <c r="AK82" s="31"/>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A83" s="31"/>
       <c r="B83" s="31"/>
       <c r="C83" s="31"/>
@@ -4519,7 +4519,7 @@
       <c r="AJ83" s="31"/>
       <c r="AK83" s="31"/>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A84" s="31"/>
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
@@ -4558,7 +4558,7 @@
       <c r="AJ84" s="31"/>
       <c r="AK84" s="31"/>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="C85" s="31"/>
@@ -4597,7 +4597,7 @@
       <c r="AJ85" s="31"/>
       <c r="AK85" s="31"/>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A86" s="31"/>
       <c r="B86" s="31"/>
       <c r="C86" s="31"/>
@@ -4636,7 +4636,7 @@
       <c r="AJ86" s="31"/>
       <c r="AK86" s="31"/>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A87" s="31"/>
       <c r="B87" s="31"/>
       <c r="C87" s="31"/>
@@ -4675,7 +4675,7 @@
       <c r="AJ87" s="31"/>
       <c r="AK87" s="31"/>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A88" s="31"/>
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
@@ -4714,7 +4714,7 @@
       <c r="AJ88" s="31"/>
       <c r="AK88" s="31"/>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A89" s="31"/>
       <c r="B89" s="31"/>
       <c r="C89" s="31"/>
@@ -4753,7 +4753,7 @@
       <c r="AJ89" s="31"/>
       <c r="AK89" s="31"/>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A90" s="31"/>
       <c r="B90" s="31"/>
       <c r="C90" s="31"/>
@@ -4792,7 +4792,7 @@
       <c r="AJ90" s="31"/>
       <c r="AK90" s="31"/>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A91" s="31"/>
       <c r="B91" s="31"/>
       <c r="C91" s="31"/>
@@ -4831,7 +4831,7 @@
       <c r="AJ91" s="31"/>
       <c r="AK91" s="31"/>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A92" s="31"/>
       <c r="B92" s="31"/>
       <c r="C92" s="31"/>
@@ -4870,7 +4870,7 @@
       <c r="AJ92" s="31"/>
       <c r="AK92" s="31"/>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A93" s="31"/>
       <c r="B93" s="31"/>
       <c r="C93" s="31"/>
@@ -4909,7 +4909,7 @@
       <c r="AJ93" s="31"/>
       <c r="AK93" s="31"/>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A94" s="31"/>
       <c r="B94" s="31"/>
       <c r="C94" s="31"/>
@@ -4948,7 +4948,7 @@
       <c r="AJ94" s="31"/>
       <c r="AK94" s="31"/>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A95" s="31"/>
       <c r="B95" s="31"/>
       <c r="C95" s="31"/>
@@ -4987,7 +4987,7 @@
       <c r="AJ95" s="31"/>
       <c r="AK95" s="31"/>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A96" s="31"/>
       <c r="B96" s="31"/>
       <c r="C96" s="31"/>
@@ -5026,7 +5026,7 @@
       <c r="AJ96" s="31"/>
       <c r="AK96" s="31"/>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A97" s="31"/>
       <c r="B97" s="31"/>
       <c r="C97" s="31"/>
@@ -5065,7 +5065,7 @@
       <c r="AJ97" s="31"/>
       <c r="AK97" s="31"/>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A98" s="31"/>
       <c r="B98" s="31"/>
       <c r="C98" s="31"/>
@@ -5104,7 +5104,7 @@
       <c r="AJ98" s="31"/>
       <c r="AK98" s="31"/>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A99" s="31"/>
       <c r="B99" s="31"/>
       <c r="C99" s="31"/>
@@ -5143,7 +5143,7 @@
       <c r="AJ99" s="31"/>
       <c r="AK99" s="31"/>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A100" s="31"/>
       <c r="B100" s="31"/>
       <c r="C100" s="31"/>
@@ -5182,7 +5182,7 @@
       <c r="AJ100" s="31"/>
       <c r="AK100" s="31"/>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A101" s="31"/>
       <c r="B101" s="31"/>
       <c r="C101" s="31"/>
@@ -5221,7 +5221,7 @@
       <c r="AJ101" s="31"/>
       <c r="AK101" s="31"/>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A102" s="31"/>
       <c r="B102" s="31"/>
       <c r="C102" s="31"/>
@@ -5260,7 +5260,7 @@
       <c r="AJ102" s="31"/>
       <c r="AK102" s="31"/>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A103" s="31"/>
       <c r="B103" s="31"/>
       <c r="C103" s="31"/>
@@ -5299,7 +5299,7 @@
       <c r="AJ103" s="31"/>
       <c r="AK103" s="31"/>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A104" s="31"/>
       <c r="B104" s="31"/>
       <c r="C104" s="31"/>
@@ -5338,7 +5338,7 @@
       <c r="AJ104" s="31"/>
       <c r="AK104" s="31"/>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A105" s="31"/>
       <c r="B105" s="31"/>
       <c r="C105" s="31"/>
@@ -5377,7 +5377,7 @@
       <c r="AJ105" s="31"/>
       <c r="AK105" s="31"/>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A106" s="31"/>
       <c r="B106" s="31"/>
       <c r="C106" s="31"/>
@@ -5416,7 +5416,7 @@
       <c r="AJ106" s="31"/>
       <c r="AK106" s="31"/>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A107" s="31"/>
       <c r="B107" s="31"/>
       <c r="C107" s="31"/>
@@ -5455,7 +5455,7 @@
       <c r="AJ107" s="31"/>
       <c r="AK107" s="31"/>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A108" s="31"/>
       <c r="B108" s="31"/>
       <c r="C108" s="31"/>
@@ -5494,7 +5494,7 @@
       <c r="AJ108" s="31"/>
       <c r="AK108" s="31"/>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A109" s="31"/>
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
@@ -5533,7 +5533,7 @@
       <c r="AJ109" s="31"/>
       <c r="AK109" s="31"/>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A110" s="31"/>
       <c r="B110" s="31"/>
       <c r="C110" s="31"/>
@@ -5572,7 +5572,7 @@
       <c r="AJ110" s="31"/>
       <c r="AK110" s="31"/>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A111" s="31"/>
       <c r="B111" s="31"/>
       <c r="C111" s="31"/>
@@ -5611,7 +5611,7 @@
       <c r="AJ111" s="31"/>
       <c r="AK111" s="31"/>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A112" s="31"/>
       <c r="B112" s="31"/>
       <c r="C112" s="31"/>
@@ -5650,7 +5650,7 @@
       <c r="AJ112" s="31"/>
       <c r="AK112" s="31"/>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A113" s="31"/>
       <c r="B113" s="31"/>
       <c r="C113" s="31"/>
@@ -5689,7 +5689,7 @@
       <c r="AJ113" s="31"/>
       <c r="AK113" s="31"/>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A114" s="31"/>
       <c r="B114" s="31"/>
       <c r="C114" s="31"/>
@@ -5728,7 +5728,7 @@
       <c r="AJ114" s="31"/>
       <c r="AK114" s="31"/>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A115" s="31"/>
       <c r="B115" s="31"/>
       <c r="C115" s="31"/>
@@ -5767,7 +5767,7 @@
       <c r="AJ115" s="31"/>
       <c r="AK115" s="31"/>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A116" s="31"/>
       <c r="B116" s="31"/>
       <c r="C116" s="31"/>
@@ -5806,7 +5806,7 @@
       <c r="AJ116" s="31"/>
       <c r="AK116" s="31"/>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A117" s="31"/>
       <c r="B117" s="31"/>
       <c r="C117" s="31"/>
@@ -5845,7 +5845,7 @@
       <c r="AJ117" s="31"/>
       <c r="AK117" s="31"/>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A118" s="31"/>
       <c r="B118" s="31"/>
       <c r="C118" s="31"/>
@@ -5884,7 +5884,7 @@
       <c r="AJ118" s="31"/>
       <c r="AK118" s="31"/>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A119" s="31"/>
       <c r="B119" s="31"/>
       <c r="C119" s="31"/>
@@ -5923,7 +5923,7 @@
       <c r="AJ119" s="31"/>
       <c r="AK119" s="31"/>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A120" s="31"/>
       <c r="B120" s="31"/>
       <c r="C120" s="31"/>
@@ -5962,7 +5962,7 @@
       <c r="AJ120" s="31"/>
       <c r="AK120" s="31"/>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A121" s="31"/>
       <c r="B121" s="31"/>
       <c r="C121" s="31"/>
@@ -6001,7 +6001,7 @@
       <c r="AJ121" s="31"/>
       <c r="AK121" s="31"/>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A122" s="31"/>
       <c r="B122" s="31"/>
       <c r="C122" s="31"/>
@@ -6040,7 +6040,7 @@
       <c r="AJ122" s="31"/>
       <c r="AK122" s="31"/>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A123" s="31"/>
       <c r="B123" s="31"/>
       <c r="C123" s="31"/>
@@ -6079,7 +6079,7 @@
       <c r="AJ123" s="31"/>
       <c r="AK123" s="31"/>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A124" s="31"/>
       <c r="B124" s="31"/>
       <c r="C124" s="31"/>
@@ -6118,7 +6118,7 @@
       <c r="AJ124" s="31"/>
       <c r="AK124" s="31"/>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A125" s="31"/>
       <c r="B125" s="31"/>
       <c r="C125" s="31"/>
@@ -6157,7 +6157,7 @@
       <c r="AJ125" s="31"/>
       <c r="AK125" s="31"/>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A126" s="31"/>
       <c r="B126" s="31"/>
       <c r="C126" s="31"/>
@@ -6196,7 +6196,7 @@
       <c r="AJ126" s="31"/>
       <c r="AK126" s="31"/>
     </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A127" s="31"/>
       <c r="B127" s="31"/>
       <c r="C127" s="31"/>
@@ -6235,7 +6235,7 @@
       <c r="AJ127" s="31"/>
       <c r="AK127" s="31"/>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A128" s="31"/>
       <c r="B128" s="31"/>
       <c r="C128" s="31"/>
@@ -6274,7 +6274,7 @@
       <c r="AJ128" s="31"/>
       <c r="AK128" s="31"/>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A129" s="31"/>
       <c r="B129" s="31"/>
       <c r="C129" s="31"/>
@@ -6313,7 +6313,7 @@
       <c r="AJ129" s="31"/>
       <c r="AK129" s="31"/>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A130" s="31"/>
       <c r="B130" s="31"/>
       <c r="C130" s="31"/>
@@ -6352,7 +6352,7 @@
       <c r="AJ130" s="31"/>
       <c r="AK130" s="31"/>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A131" s="31"/>
       <c r="B131" s="31"/>
       <c r="C131" s="31"/>
@@ -6391,7 +6391,7 @@
       <c r="AJ131" s="31"/>
       <c r="AK131" s="31"/>
     </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A132" s="31"/>
       <c r="B132" s="31"/>
       <c r="C132" s="31"/>
@@ -6430,7 +6430,7 @@
       <c r="AJ132" s="31"/>
       <c r="AK132" s="31"/>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A133" s="31"/>
       <c r="B133" s="31"/>
       <c r="C133" s="31"/>
@@ -6469,7 +6469,7 @@
       <c r="AJ133" s="31"/>
       <c r="AK133" s="31"/>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A134" s="31"/>
       <c r="B134" s="31"/>
       <c r="C134" s="31"/>
@@ -6508,7 +6508,7 @@
       <c r="AJ134" s="31"/>
       <c r="AK134" s="31"/>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A135" s="31"/>
       <c r="B135" s="31"/>
       <c r="C135" s="31"/>
@@ -6547,7 +6547,7 @@
       <c r="AJ135" s="31"/>
       <c r="AK135" s="31"/>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A136" s="31"/>
       <c r="B136" s="31"/>
       <c r="C136" s="31"/>
@@ -6586,7 +6586,7 @@
       <c r="AJ136" s="31"/>
       <c r="AK136" s="31"/>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A137" s="31"/>
       <c r="B137" s="31"/>
       <c r="C137" s="31"/>
@@ -6625,7 +6625,7 @@
       <c r="AJ137" s="31"/>
       <c r="AK137" s="31"/>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A138" s="31"/>
       <c r="B138" s="31"/>
       <c r="C138" s="31"/>
@@ -6664,7 +6664,7 @@
       <c r="AJ138" s="31"/>
       <c r="AK138" s="31"/>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A139" s="31"/>
       <c r="B139" s="31"/>
       <c r="C139" s="31"/>
@@ -6703,7 +6703,7 @@
       <c r="AJ139" s="31"/>
       <c r="AK139" s="31"/>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A140" s="31"/>
       <c r="B140" s="31"/>
       <c r="C140" s="31"/>
@@ -6742,7 +6742,7 @@
       <c r="AJ140" s="31"/>
       <c r="AK140" s="31"/>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A141" s="31"/>
       <c r="B141" s="31"/>
       <c r="C141" s="31"/>
@@ -6781,7 +6781,7 @@
       <c r="AJ141" s="31"/>
       <c r="AK141" s="31"/>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A142" s="31"/>
       <c r="B142" s="31"/>
       <c r="C142" s="31"/>
@@ -6820,7 +6820,7 @@
       <c r="AJ142" s="31"/>
       <c r="AK142" s="31"/>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A143" s="31"/>
       <c r="B143" s="31"/>
       <c r="C143" s="31"/>
@@ -6859,7 +6859,7 @@
       <c r="AJ143" s="31"/>
       <c r="AK143" s="31"/>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A144" s="31"/>
       <c r="B144" s="31"/>
       <c r="C144" s="31"/>
@@ -6898,7 +6898,7 @@
       <c r="AJ144" s="31"/>
       <c r="AK144" s="31"/>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A145" s="31"/>
       <c r="B145" s="31"/>
       <c r="C145" s="31"/>
@@ -6937,7 +6937,7 @@
       <c r="AJ145" s="31"/>
       <c r="AK145" s="31"/>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A146" s="31"/>
       <c r="B146" s="31"/>
       <c r="C146" s="31"/>
@@ -6976,7 +6976,7 @@
       <c r="AJ146" s="31"/>
       <c r="AK146" s="31"/>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A147" s="31"/>
       <c r="B147" s="31"/>
       <c r="C147" s="31"/>
@@ -7015,7 +7015,7 @@
       <c r="AJ147" s="31"/>
       <c r="AK147" s="31"/>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A148" s="31"/>
       <c r="B148" s="31"/>
       <c r="C148" s="31"/>
@@ -7054,7 +7054,7 @@
       <c r="AJ148" s="31"/>
       <c r="AK148" s="31"/>
     </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A149" s="31"/>
       <c r="B149" s="31"/>
       <c r="C149" s="31"/>
@@ -7093,7 +7093,7 @@
       <c r="AJ149" s="31"/>
       <c r="AK149" s="31"/>
     </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A150" s="31"/>
       <c r="B150" s="31"/>
       <c r="C150" s="31"/>
@@ -7132,7 +7132,7 @@
       <c r="AJ150" s="31"/>
       <c r="AK150" s="31"/>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A151" s="31"/>
       <c r="B151" s="31"/>
       <c r="C151" s="31"/>
@@ -7171,7 +7171,7 @@
       <c r="AJ151" s="31"/>
       <c r="AK151" s="31"/>
     </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A152" s="31"/>
       <c r="B152" s="31"/>
       <c r="C152" s="31"/>
@@ -7210,7 +7210,7 @@
       <c r="AJ152" s="31"/>
       <c r="AK152" s="31"/>
     </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A153" s="31"/>
       <c r="B153" s="31"/>
       <c r="C153" s="31"/>
@@ -7249,7 +7249,7 @@
       <c r="AJ153" s="31"/>
       <c r="AK153" s="31"/>
     </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A154" s="31"/>
       <c r="B154" s="31"/>
       <c r="C154" s="31"/>
@@ -7288,7 +7288,7 @@
       <c r="AJ154" s="31"/>
       <c r="AK154" s="31"/>
     </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A155" s="31"/>
       <c r="B155" s="31"/>
       <c r="C155" s="31"/>
@@ -7327,7 +7327,7 @@
       <c r="AJ155" s="31"/>
       <c r="AK155" s="31"/>
     </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A156" s="31"/>
       <c r="B156" s="31"/>
       <c r="C156" s="31"/>
@@ -7366,7 +7366,7 @@
       <c r="AJ156" s="31"/>
       <c r="AK156" s="31"/>
     </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A157" s="31"/>
       <c r="B157" s="31"/>
       <c r="C157" s="31"/>
@@ -7405,7 +7405,7 @@
       <c r="AJ157" s="31"/>
       <c r="AK157" s="31"/>
     </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A158" s="31"/>
       <c r="B158" s="31"/>
       <c r="C158" s="31"/>
@@ -7444,7 +7444,7 @@
       <c r="AJ158" s="31"/>
       <c r="AK158" s="31"/>
     </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A159" s="31"/>
       <c r="B159" s="31"/>
       <c r="C159" s="31"/>
@@ -7483,7 +7483,7 @@
       <c r="AJ159" s="31"/>
       <c r="AK159" s="31"/>
     </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A160" s="31"/>
       <c r="B160" s="31"/>
       <c r="C160" s="31"/>
@@ -7522,7 +7522,7 @@
       <c r="AJ160" s="31"/>
       <c r="AK160" s="31"/>
     </row>
-    <row r="161" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A161" s="31"/>
       <c r="B161" s="31"/>
       <c r="C161" s="31"/>
@@ -7561,7 +7561,7 @@
       <c r="AJ161" s="31"/>
       <c r="AK161" s="31"/>
     </row>
-    <row r="162" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A162" s="31"/>
       <c r="B162" s="31"/>
       <c r="C162" s="31"/>
@@ -7600,7 +7600,7 @@
       <c r="AJ162" s="31"/>
       <c r="AK162" s="31"/>
     </row>
-    <row r="163" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A163" s="31"/>
       <c r="B163" s="31"/>
       <c r="C163" s="31"/>
@@ -7639,7 +7639,7 @@
       <c r="AJ163" s="31"/>
       <c r="AK163" s="31"/>
     </row>
-    <row r="164" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A164" s="31"/>
       <c r="B164" s="31"/>
       <c r="C164" s="31"/>
@@ -7678,7 +7678,7 @@
       <c r="AJ164" s="31"/>
       <c r="AK164" s="31"/>
     </row>
-    <row r="165" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A165" s="31"/>
       <c r="B165" s="31"/>
       <c r="C165" s="31"/>
@@ -7717,7 +7717,7 @@
       <c r="AJ165" s="31"/>
       <c r="AK165" s="31"/>
     </row>
-    <row r="166" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A166" s="31"/>
       <c r="B166" s="31"/>
       <c r="C166" s="31"/>
@@ -7756,7 +7756,7 @@
       <c r="AJ166" s="31"/>
       <c r="AK166" s="31"/>
     </row>
-    <row r="167" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A167" s="31"/>
       <c r="B167" s="31"/>
       <c r="C167" s="31"/>
@@ -7798,17 +7798,22 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="43">
-    <mergeCell ref="A38:D41"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C43:M44"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A24:O25"/>
+    <mergeCell ref="A30:O31"/>
+    <mergeCell ref="A33:O35"/>
+    <mergeCell ref="A26:O26"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:O16"/>
+    <mergeCell ref="A17:O19"/>
+    <mergeCell ref="A3:O5"/>
+    <mergeCell ref="D7:H8"/>
+    <mergeCell ref="D9:H10"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A9:C10"/>
@@ -7825,22 +7830,17 @@
     <mergeCell ref="L10:O10"/>
     <mergeCell ref="L11:O11"/>
     <mergeCell ref="D11:H12"/>
-    <mergeCell ref="C43:M44"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A24:O25"/>
-    <mergeCell ref="A30:O31"/>
-    <mergeCell ref="A33:O35"/>
-    <mergeCell ref="A26:O26"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:O16"/>
-    <mergeCell ref="A17:O19"/>
-    <mergeCell ref="A3:O5"/>
-    <mergeCell ref="D7:H8"/>
-    <mergeCell ref="D9:H10"/>
+    <mergeCell ref="A38:D41"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C21"/>
